--- a/data/commerical-Vs-printed-comparison/analysis/ISO.xlsx
+++ b/data/commerical-Vs-printed-comparison/analysis/ISO.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="300uL_ISO.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="1000uL_ISO.csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>nominal volume</t>
   </si>
@@ -37,10 +38,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +80,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -483,6 +504,105 @@
       <c r="D5">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+        <v>1008</v>
+      </c>
+      <c r="D2">
+        <f>A2-B2</f>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">A3+B3</f>
+        <v>508</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="1">A3-B3</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/commerical-Vs-printed-comparison/analysis/ISO.xlsx
+++ b/data/commerical-Vs-printed-comparison/analysis/ISO.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="24920" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="300uL_ISO.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="1000uL_ISO.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="100uL_ISO.csv" sheetId="3" r:id="rId1"/>
+    <sheet name="300uL_ISO.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="1000uL_ISO.csv" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>nominal volume</t>
   </si>
@@ -80,17 +81,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,9 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -444,18 +451,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
         <f>A2+B2</f>
-        <v>204</v>
+        <v>100.8</v>
       </c>
       <c r="D2">
         <f>A2-B2</f>
-        <v>196</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -463,15 +470,15 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="0">A3+B3</f>
-        <v>54</v>
+        <v>50.8</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="1">A3-B3</f>
-        <v>46</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -479,15 +486,15 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20.8</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -495,20 +502,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10.8</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -521,7 +527,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <f>A2-B2</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">A3+B3</f>
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="1">A3-B3</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
